--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Ptprz1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1234603333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.370381</v>
+      </c>
+      <c r="I2">
+        <v>0.002558470358543426</v>
+      </c>
+      <c r="J2">
+        <v>0.002636284444771545</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.229395</v>
-      </c>
-      <c r="H2">
-        <v>0.6881849999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.004530516537937373</v>
-      </c>
-      <c r="J2">
-        <v>0.004734510558374422</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N2">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O2">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P2">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q2">
-        <v>0.001514236395</v>
+        <v>0.002023062175444445</v>
       </c>
       <c r="R2">
-        <v>0.013628127555</v>
+        <v>0.018207559579</v>
       </c>
       <c r="S2">
-        <v>4.193173182695757E-06</v>
+        <v>5.595814939749714E-05</v>
       </c>
       <c r="T2">
-        <v>6.548088773898518E-06</v>
+        <v>8.555450393818574E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H3">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I3">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J3">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N3">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O3">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P3">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q3">
-        <v>0.003758942935</v>
+        <v>0.09047364590183335</v>
       </c>
       <c r="R3">
-        <v>0.033830486415</v>
+        <v>0.542841875411</v>
       </c>
       <c r="S3">
-        <v>1.040914005393833E-05</v>
+        <v>0.002502512209145929</v>
       </c>
       <c r="T3">
-        <v>1.625498641802137E-05</v>
+        <v>0.002550729940833359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,60 +649,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H4">
+        <v>131.577157</v>
+      </c>
+      <c r="I4">
+        <v>0.9088918061291337</v>
+      </c>
+      <c r="J4">
+        <v>0.9365351146153917</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.229395</v>
-      </c>
-      <c r="H4">
-        <v>0.6881849999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.004530516537937373</v>
-      </c>
-      <c r="J4">
-        <v>0.004734510558374422</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N4">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O4">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P4">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q4">
-        <v>0.007158423904999999</v>
+        <v>0.718689051218111</v>
       </c>
       <c r="R4">
-        <v>0.06442581514499998</v>
+        <v>6.468201460963</v>
       </c>
       <c r="S4">
-        <v>1.982286996134064E-05</v>
+        <v>0.01987902783540176</v>
       </c>
       <c r="T4">
-        <v>3.095553334070885E-05</v>
+        <v>0.03039307738985472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -717,22 +714,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.229395</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H5">
-        <v>0.6881849999999999</v>
+        <v>131.577157</v>
       </c>
       <c r="I5">
-        <v>0.004530516537937373</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J5">
-        <v>0.004734510558374422</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,33 +738,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N5">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O5">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P5">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q5">
-        <v>1.6236260387925</v>
+        <v>32.14059336517784</v>
       </c>
       <c r="R5">
-        <v>9.741756232755</v>
+        <v>192.843560191067</v>
       </c>
       <c r="S5">
-        <v>0.004496091354739398</v>
+        <v>0.889012778293732</v>
       </c>
       <c r="T5">
-        <v>0.004680751949841794</v>
+        <v>0.9061420372255371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.85905233333333</v>
+        <v>4.2730135</v>
       </c>
       <c r="H6">
-        <v>131.577157</v>
+        <v>8.546027</v>
       </c>
       <c r="I6">
-        <v>0.8662096468293877</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J6">
-        <v>0.9052121726823298</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N6">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O6">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P6">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q6">
-        <v>0.2895136044523333</v>
+        <v>0.07001902354883334</v>
       </c>
       <c r="R6">
-        <v>2.605622440071</v>
+        <v>0.420114141293</v>
       </c>
       <c r="S6">
-        <v>0.0008017114673928513</v>
+        <v>0.001936734830975581</v>
       </c>
       <c r="T6">
-        <v>0.001251958273797283</v>
+        <v>0.001974051316421041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,427 +835,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>43.85905233333333</v>
+        <v>4.2730135</v>
       </c>
       <c r="H7">
-        <v>131.577157</v>
+        <v>8.546027</v>
       </c>
       <c r="I7">
-        <v>0.8662096468293877</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J7">
-        <v>0.9052121726823298</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N7">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O7">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P7">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q7">
-        <v>0.718689051218111</v>
+        <v>3.13133052450925</v>
       </c>
       <c r="R7">
-        <v>6.468201460963</v>
+        <v>12.525322098037</v>
       </c>
       <c r="S7">
-        <v>0.001990169874542502</v>
+        <v>0.08661298868134741</v>
       </c>
       <c r="T7">
-        <v>0.003107863292511267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>43.85905233333333</v>
-      </c>
-      <c r="H8">
-        <v>131.577157</v>
-      </c>
-      <c r="I8">
-        <v>0.8662096468293877</v>
-      </c>
-      <c r="J8">
-        <v>0.9052121726823298</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P8">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q8">
-        <v>1.368650967429889</v>
-      </c>
-      <c r="R8">
-        <v>12.317858706869</v>
-      </c>
-      <c r="S8">
-        <v>0.003790022847190655</v>
-      </c>
-      <c r="T8">
-        <v>0.005918526370654961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>43.85905233333333</v>
-      </c>
-      <c r="H9">
-        <v>131.577157</v>
-      </c>
-      <c r="I9">
-        <v>0.8662096468293877</v>
-      </c>
-      <c r="J9">
-        <v>0.9052121726823298</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.0778615</v>
-      </c>
-      <c r="N9">
-        <v>14.155723</v>
-      </c>
-      <c r="O9">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P9">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q9">
-        <v>310.4282979365851</v>
-      </c>
-      <c r="R9">
-        <v>1862.569787619511</v>
-      </c>
-      <c r="S9">
-        <v>0.8596277426402618</v>
-      </c>
-      <c r="T9">
-        <v>0.8949338247453664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>6.544852000000001</v>
-      </c>
-      <c r="H10">
-        <v>13.089704</v>
-      </c>
-      <c r="I10">
-        <v>0.1292598366326751</v>
-      </c>
-      <c r="J10">
-        <v>0.09005331675929572</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.006601</v>
-      </c>
-      <c r="N10">
-        <v>0.019803</v>
-      </c>
-      <c r="O10">
-        <v>0.0009255397585646605</v>
-      </c>
-      <c r="P10">
-        <v>0.001383055057785483</v>
-      </c>
-      <c r="Q10">
-        <v>0.04320256805200001</v>
-      </c>
-      <c r="R10">
-        <v>0.259215408312</v>
-      </c>
-      <c r="S10">
-        <v>0.0001196351179891135</v>
-      </c>
-      <c r="T10">
-        <v>0.0001245486952143022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.544852000000001</v>
-      </c>
-      <c r="H11">
-        <v>13.089704</v>
-      </c>
-      <c r="I11">
-        <v>0.1292598366326751</v>
-      </c>
-      <c r="J11">
-        <v>0.09005331675929572</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.01638633333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.049159</v>
-      </c>
-      <c r="O11">
-        <v>0.00229756142964602</v>
-      </c>
-      <c r="P11">
-        <v>0.003433298166221107</v>
-      </c>
-      <c r="Q11">
-        <v>0.1072461264893333</v>
-      </c>
-      <c r="R11">
-        <v>0.6434767589360001</v>
-      </c>
-      <c r="S11">
-        <v>0.0002969824150495799</v>
-      </c>
-      <c r="T11">
-        <v>0.0003091798872918184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>6.544852000000001</v>
-      </c>
-      <c r="H12">
-        <v>13.089704</v>
-      </c>
-      <c r="I12">
-        <v>0.1292598366326751</v>
-      </c>
-      <c r="J12">
-        <v>0.09005331675929572</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P12">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q12">
-        <v>0.2042364698946667</v>
-      </c>
-      <c r="R12">
-        <v>1.225418819368</v>
-      </c>
-      <c r="S12">
-        <v>0.0005655648558696581</v>
-      </c>
-      <c r="T12">
-        <v>0.000588793374735006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.544852000000001</v>
-      </c>
-      <c r="H13">
-        <v>13.089704</v>
-      </c>
-      <c r="I13">
-        <v>0.1292598366326751</v>
-      </c>
-      <c r="J13">
-        <v>0.09005331675929572</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.0778615</v>
-      </c>
-      <c r="N13">
-        <v>14.155723</v>
-      </c>
-      <c r="O13">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P13">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q13">
-        <v>46.32355599399801</v>
-      </c>
-      <c r="R13">
-        <v>185.294223975992</v>
-      </c>
-      <c r="S13">
-        <v>0.1282776542437667</v>
-      </c>
-      <c r="T13">
-        <v>0.0890307948020546</v>
+        <v>0.0588545496234156</v>
       </c>
     </row>
   </sheetData>
